--- a/temp/vehicles_avg_speeds.xlsx
+++ b/temp/vehicles_avg_speeds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.875</v>
+        <v>21.04553260289762</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.90665657886959</v>
+        <v>22.0070710644361</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.4375</v>
+        <v>65.31612035052051</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.29383439346647</v>
+        <v>44.17008018759426</v>
       </c>
     </row>
     <row r="6">
@@ -492,97 +492,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.92619556959576</v>
+        <v>47.492330679556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.96388030484067</v>
+        <v>75.3056429174495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.76960823020805</v>
+        <v>43.1133569440285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.44746733166309</v>
+        <v>41.47088942768687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.72194829840291</v>
+        <v>8.16923076923082</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.69682201554986</v>
+        <v>58.04980978904219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.05670758654503</v>
+        <v>62.04096999573512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.40163739254188</v>
+        <v>52.65503583354378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.91873474139401</v>
+        <v>59.56242979952989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>57.92829488163623</v>
+        <v>56.17233960436053</v>
       </c>
     </row>
     <row r="16">
@@ -592,17 +592,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.125</v>
+        <v>16.61538461538419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>motorcycle</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.46192180968962</v>
+        <v>82.98241558561205</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>78.91612754929216</v>
+        <v>56.88216042630249</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.35445119105882</v>
+        <v>24.15930719924168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>motorcycle</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>33.33350842526671</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>motorcycle</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>63.72674657089972</v>
       </c>
     </row>
   </sheetData>
